--- a/工具 tools/概率计算/常见概率.xlsx
+++ b/工具 tools/概率计算/常见概率.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Minecraft\tree-hole\工具 tools\概率计算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECFAF64-6F69-4152-B267-1EB3F175F393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B51AA79-43E0-4F17-8C9A-97364ABFDFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通类" sheetId="1" r:id="rId1"/>
     <sheet name="单阶段" sheetId="6" r:id="rId2"/>
-    <sheet name="降水类" sheetId="4" r:id="rId3"/>
-    <sheet name="甘蔗类" sheetId="3" r:id="rId4"/>
-    <sheet name="海带类" sheetId="2" r:id="rId5"/>
-    <sheet name="掠夺三" sheetId="7" r:id="rId6"/>
+    <sheet name="甘蔗类" sheetId="3" r:id="rId3"/>
+    <sheet name="海带类" sheetId="2" r:id="rId4"/>
+    <sheet name="掠夺三" sheetId="7" r:id="rId5"/>
+    <sheet name="降水类" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +36,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,30 +314,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孤立铜块氧化速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孤立铜门氧化速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未生锈、斑驳、锈蚀、氧化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>64/1125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(64/1125)/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜门只有下半部分选中能氧化，但是统计周围的时候又包含上半部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>net.minecraft.world.level.storage.loot.functions.EnchantedCountIncreaseFunction#run</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,6 +359,16 @@
   </si>
   <si>
     <t>限高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜块氧化速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p=(64/1125)*k*(周围氧化更严重数量^2+1)/(周围总数^2+1)
+如果此铜块未氧化，k=1，否则为k=3/4，“周围”是指曼哈顿距离&lt;=4的铜块
+铜门只有下半部分选中能氧化，但是统计周围的时候又包含上半部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,50 +445,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,313 +781,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="71.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.9140625" style="3"/>
+    <col min="1" max="1" width="30.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.9140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="16">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="18">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="16">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="16">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="16">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="17">
         <f>1/10</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="16">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="21">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="16">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="17">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="16">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="21">
         <f>1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="17">
         <f>45/256</f>
         <v>0.17578125</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="16">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="17">
         <f>45/256</f>
         <v>0.17578125</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="16">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="17">
         <f>15/256</f>
         <v>5.859375E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="17">
         <f>64/5625</f>
         <v>1.1377777777777778E-2</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="16">
+        <v>4</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="3">
-        <v>4</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="6">
-        <f>64/1125</f>
-        <v>5.6888888888888892E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="3">
-        <v>4</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="6">
-        <f>(64/1125)/4</f>
-        <v>1.4222222222222223E-2</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>72</v>
+      <c r="F18" s="22" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1111,17 +1079,17 @@
     <col min="4" max="4" width="98" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1129,7 +1097,7 @@
       <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C2">
@@ -1144,7 +1112,7 @@
       <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C3">
@@ -1162,6 +1130,254 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59110A14-25B8-461A-B682-E0D44E445B43}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="14.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D36301-2C6C-4C74-9DAC-4C9131A94EAB}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.4140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.9140625" style="4"/>
+    <col min="7" max="7" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.9140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4">
+        <f>0.14</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAACDFAA-1463-4F90-A325-E42723634C49}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803531CA-6398-4814-BAD9-953E9AD59F10}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1169,86 +1385,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.9140625" style="7"/>
+    <col min="1" max="1" width="13.58203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.9140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>81</v>
+      <c r="F1" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10">
         <v>4</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="9">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="9">
         <f>1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -1261,250 +1477,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59110A14-25B8-461A-B682-E0D44E445B43}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="14.6640625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D36301-2C6C-4C74-9DAC-4C9131A94EAB}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.4140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.9140625" style="7"/>
-    <col min="7" max="7" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.9140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="7">
-        <f>0.14</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7">
-        <f>0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="7">
-        <f>0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7">
-        <f>0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAACDFAA-1463-4F90-A325-E42723634C49}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>